--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_2_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2490241.570101185</v>
+        <v>2490241.570101208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800633</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800633</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177832</v>
+        <v>3940022.790763869</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177832</v>
+        <v>3940022.790763869</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647382362.376274</v>
+        <v>62380380.03707928</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C2" t="n">
         <v>449.4745782429939</v>
@@ -679,7 +679,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H2" t="n">
         <v>347.8590406130752</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>383.0228566887534</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
         <v>361.0999124455193</v>
@@ -797,7 +797,7 @@
         <v>408.192915058951</v>
       </c>
       <c r="T3" t="n">
-        <v>392.6911708778912</v>
+        <v>391.1574709203184</v>
       </c>
       <c r="U3" t="n">
         <v>400.0036144771679</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V5" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W5" t="n">
         <v>638.3734759809475</v>
@@ -1001,7 +1001,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>408.192915058951</v>
       </c>
       <c r="T6" t="n">
-        <v>392.6911708778912</v>
+        <v>391.1574709203184</v>
       </c>
       <c r="U6" t="n">
         <v>400.0036144771679</v>
@@ -1107,7 +1107,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R7" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>359.6204767756762</v>
+        <v>359.6204767757455</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1235,7 +1235,7 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816778</v>
       </c>
       <c r="I9" t="n">
         <v>108.929687778141</v>
@@ -1274,7 +1274,7 @@
         <v>392.6911708778912</v>
       </c>
       <c r="U9" t="n">
-        <v>398.469914519595</v>
+        <v>400.0036144771679</v>
       </c>
       <c r="V9" t="n">
         <v>414.5106671915202</v>
@@ -1429,7 +1429,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
-        <v>559.576574119003</v>
+        <v>559.5765741190723</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1596,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767757455</v>
       </c>
       <c r="T14" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
         <v>648.751427201877</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611599379</v>
       </c>
       <c r="H17" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E20" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F20" t="n">
         <v>404.8896287080119</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767757455</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2186,7 +2186,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
         <v>408.192915058951</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963201676</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963202681</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U26" t="n">
         <v>648.751427201877</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S27" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2815,7 +2815,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2973,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3094,7 +3094,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V32" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738476</v>
       </c>
       <c r="W32" t="n">
         <v>638.3734759809475</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>14.39810218700129</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>359.6204767756762</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3401,7 +3401,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3413,7 +3413,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W36" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X36" t="n">
         <v>419.8627394453875</v>
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X38" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676915</v>
       </c>
       <c r="Y38" t="n">
         <v>511.3174326828064</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3808,7 +3808,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W41" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879713</v>
       </c>
       <c r="X41" t="n">
         <v>592.2818334606677</v>
@@ -3845,7 +3845,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S42" t="n">
         <v>408.192915058951</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500177</v>
       </c>
       <c r="D44" t="n">
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
@@ -4073,7 +4073,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F45" t="n">
-        <v>338.1025423803039</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
         <v>322.5970075731406</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S45" t="n">
         <v>408.192915058951</v>
@@ -4140,70 +4140,70 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G2" t="n">
         <v>492.3327682960356</v>
@@ -4336,52 +4336,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K2" t="n">
-        <v>2018.47013910948</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L2" t="n">
-        <v>2936.062862426063</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M2" t="n">
-        <v>3418.242061939566</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N2" t="n">
-        <v>3983.285125812238</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O2" t="n">
-        <v>4893.440008752982</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P2" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q2" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4445,22 +4445,22 @@
         <v>5157.673230555786</v>
       </c>
       <c r="T3" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U3" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V3" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W3" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X3" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y3" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="4">
@@ -4479,16 +4479,16 @@
         <v>252.3693006790323</v>
       </c>
       <c r="E4" t="n">
-        <v>252.3693006790323</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F4" t="n">
-        <v>252.3693006790323</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G4" t="n">
-        <v>252.3693006790323</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H4" t="n">
-        <v>252.3693006790323</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I4" t="n">
         <v>290.6133856211738</v>
@@ -4497,22 +4497,22 @@
         <v>440.0999956178874</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4573,52 +4573,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>2270.648739919985</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L5" t="n">
-        <v>3188.241463236568</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M5" t="n">
-        <v>3670.420662750071</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N5" t="n">
-        <v>4235.463726622743</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O5" t="n">
-        <v>5145.618609563487</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P5" t="n">
-        <v>5981.4859376609</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="6">
@@ -4628,25 +4628,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C6" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D6" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E6" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F6" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G6" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4682,22 +4682,22 @@
         <v>5157.673230555786</v>
       </c>
       <c r="T6" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U6" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V6" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W6" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X6" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y6" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="7">
@@ -4734,22 +4734,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N7" t="n">
-        <v>326.872627829046</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q7" t="n">
         <v>351.2038120028187</v>
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518835</v>
       </c>
       <c r="C8" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020861</v>
       </c>
       <c r="D8" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324043</v>
       </c>
       <c r="E8" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044378</v>
       </c>
       <c r="F8" t="n">
-        <v>894.2358041069906</v>
+        <v>894.235804106992</v>
       </c>
       <c r="G8" t="n">
-        <v>492.3327682960356</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H8" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I8" t="n">
-        <v>140.96</v>
+        <v>216.5482970397719</v>
       </c>
       <c r="J8" t="n">
-        <v>1025.778834695947</v>
+        <v>1101.367131735719</v>
       </c>
       <c r="K8" t="n">
-        <v>1765.421978263786</v>
+        <v>2550.716641651427</v>
       </c>
       <c r="L8" t="n">
-        <v>2683.01470158037</v>
+        <v>3468.30936496801</v>
       </c>
       <c r="M8" t="n">
-        <v>3165.193901093872</v>
+        <v>3950.488564481512</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>4515.531628354184</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5425.686511294928</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>6261.553839392342</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237069</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6684.746993155883</v>
+        <v>6684.746993155884</v>
       </c>
       <c r="T8" t="n">
-        <v>6118.11576243671</v>
+        <v>6118.115762436712</v>
       </c>
       <c r="U8" t="n">
-        <v>5462.811290515621</v>
+        <v>5462.811290515623</v>
       </c>
       <c r="V8" t="n">
-        <v>4826.598134791557</v>
+        <v>4826.598134791559</v>
       </c>
       <c r="W8" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X8" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638412</v>
       </c>
       <c r="Y8" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403254</v>
       </c>
     </row>
     <row r="9">
@@ -4865,76 +4865,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359568</v>
       </c>
       <c r="C9" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050963</v>
       </c>
       <c r="D9" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063384</v>
       </c>
       <c r="E9" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526099</v>
       </c>
       <c r="F9" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736977</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685052</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546893</v>
       </c>
       <c r="I9" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J9" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K9" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L9" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M9" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N9" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O9" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P9" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q9" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R9" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.98930637291</v>
       </c>
       <c r="S9" t="n">
-        <v>5157.673230555786</v>
+        <v>5157.673230555787</v>
       </c>
       <c r="T9" t="n">
-        <v>4761.01548219428</v>
+        <v>4761.015482194281</v>
       </c>
       <c r="U9" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166838</v>
       </c>
       <c r="V9" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.27378353904</v>
       </c>
       <c r="W9" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X9" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.42945792771</v>
       </c>
       <c r="Y9" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668989</v>
       </c>
     </row>
     <row r="10">
@@ -4944,76 +4944,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D10" t="n">
-        <v>140.96</v>
+        <v>172.7844814097623</v>
       </c>
       <c r="E10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211753</v>
       </c>
       <c r="F10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211753</v>
       </c>
       <c r="G10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211753</v>
       </c>
       <c r="H10" t="n">
-        <v>290.6133856211738</v>
+        <v>290.6133856211753</v>
       </c>
       <c r="I10" t="n">
-        <v>290.6133856211738</v>
+        <v>290.6133856211753</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>440.0999956178889</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104949</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104949</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104949</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104949</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104949</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104949</v>
       </c>
       <c r="Q10" t="n">
-        <v>351.2038120028187</v>
+        <v>351.2038120028201</v>
       </c>
       <c r="R10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="S10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="T10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="U10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="V10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="W10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y10" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="11">
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518835</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020861</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324043</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044378</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>894.235804106992</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H11" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397719</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>675.365442515424</v>
       </c>
       <c r="K11" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.714952431132</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010443</v>
+        <v>3042.307675747714</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523946</v>
+        <v>3524.486875261217</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396618</v>
+        <v>4089.529939133889</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337362</v>
+        <v>4999.684822074633</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434847</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237069</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183249</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6118.115762436712</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5462.811290515623</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4826.598134791559</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638412</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403254</v>
       </c>
     </row>
     <row r="12">
@@ -5102,76 +5102,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C12" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D12" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E12" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F12" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500346</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H12" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546893</v>
       </c>
       <c r="I12" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J12" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K12" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L12" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M12" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N12" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O12" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P12" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q12" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249246</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T12" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070617</v>
       </c>
       <c r="U12" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V12" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415377</v>
       </c>
       <c r="W12" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X12" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y12" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="13">
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099967136</v>
+        <v>290.446609996715</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="14">
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518835</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020861</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324043</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044378</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>894.235804106992</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H14" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397719</v>
       </c>
       <c r="J14" t="n">
-        <v>1101.367131735718</v>
+        <v>1101.367131735719</v>
       </c>
       <c r="K14" t="n">
-        <v>1841.010275303557</v>
+        <v>1841.010275303558</v>
       </c>
       <c r="L14" t="n">
-        <v>2758.60299862014</v>
+        <v>2758.602998620142</v>
       </c>
       <c r="M14" t="n">
-        <v>3240.782198133642</v>
+        <v>3240.782198133644</v>
       </c>
       <c r="N14" t="n">
-        <v>3805.825262006314</v>
+        <v>4728.27364139669</v>
       </c>
       <c r="O14" t="n">
-        <v>4715.980144947059</v>
+        <v>5638.428524337433</v>
       </c>
       <c r="P14" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434847</v>
       </c>
       <c r="Q14" t="n">
-        <v>7048</v>
+        <v>6931.116362237069</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155884</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6118.115762436712</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515621</v>
+        <v>5462.811290515623</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791557</v>
+        <v>4826.598134791559</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638412</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403254</v>
       </c>
     </row>
     <row r="15">
@@ -5339,76 +5339,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C15" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D15" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E15" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F15" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500346</v>
       </c>
       <c r="G15" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H15" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546893</v>
       </c>
       <c r="I15" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J15" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K15" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L15" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M15" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N15" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O15" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P15" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q15" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249246</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T15" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070617</v>
       </c>
       <c r="U15" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V15" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415377</v>
       </c>
       <c r="W15" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X15" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y15" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="16">
@@ -5418,76 +5418,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="H16" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="I16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J16" t="n">
-        <v>290.4466099967136</v>
+        <v>290.446609996715</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885958</v>
       </c>
     </row>
     <row r="17">
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546201</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048227</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351409</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071744</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361343581</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233322</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H17" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397719</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>1101.367131735719</v>
       </c>
       <c r="K17" t="n">
-        <v>1841.010275303557</v>
+        <v>2550.716641651427</v>
       </c>
       <c r="L17" t="n">
-        <v>2758.60299862014</v>
+        <v>3468.30936496801</v>
       </c>
       <c r="M17" t="n">
-        <v>3240.782198133642</v>
+        <v>3950.488564481512</v>
       </c>
       <c r="N17" t="n">
-        <v>3805.825262006314</v>
+        <v>4728.27364139669</v>
       </c>
       <c r="O17" t="n">
-        <v>4715.980144947059</v>
+        <v>5638.428524337433</v>
       </c>
       <c r="P17" t="n">
-        <v>5981.485937660902</v>
+        <v>6474.295852434847</v>
       </c>
       <c r="Q17" t="n">
-        <v>7048</v>
+        <v>6931.116362237069</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183249</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464076</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542989</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818924</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908876</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665777</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430619</v>
       </c>
     </row>
     <row r="18">
@@ -5576,76 +5576,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C18" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D18" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E18" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F18" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500346</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H18" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546893</v>
       </c>
       <c r="I18" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K18" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L18" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M18" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N18" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O18" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P18" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q18" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249246</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T18" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070617</v>
       </c>
       <c r="U18" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V18" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415377</v>
       </c>
       <c r="W18" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X18" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y18" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="19">
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="C19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="D19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="E19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="F19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="G19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="H19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="I19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967136</v>
+        <v>290.446609996715</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="T19" t="n">
-        <v>140.96</v>
+        <v>307.841604589321</v>
       </c>
       <c r="U19" t="n">
-        <v>140.96</v>
+        <v>307.841604589321</v>
       </c>
       <c r="V19" t="n">
-        <v>140.96</v>
+        <v>307.841604589321</v>
       </c>
       <c r="W19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="X19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885958</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518835</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020861</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324043</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044378</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>894.235804106992</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H20" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397719</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>675.365442515424</v>
       </c>
       <c r="K20" t="n">
-        <v>2049.12665539136</v>
+        <v>2124.714952431132</v>
       </c>
       <c r="L20" t="n">
-        <v>3793.50665539136</v>
+        <v>3042.307675747714</v>
       </c>
       <c r="M20" t="n">
-        <v>4280.114215286949</v>
+        <v>3524.486875261217</v>
       </c>
       <c r="N20" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.27364139669</v>
       </c>
       <c r="O20" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337433</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434847</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>6931.116362237069</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155884</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.115762436712</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515623</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791559</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.511963638412</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403254</v>
       </c>
     </row>
     <row r="21">
@@ -5813,76 +5813,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C21" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D21" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E21" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F21" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500346</v>
       </c>
       <c r="G21" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H21" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546893</v>
       </c>
       <c r="I21" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K21" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L21" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M21" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N21" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O21" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P21" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q21" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249246</v>
       </c>
       <c r="S21" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T21" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070617</v>
       </c>
       <c r="U21" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V21" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415377</v>
       </c>
       <c r="W21" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X21" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y21" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="22">
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967136</v>
+        <v>290.446609996715</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="V22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546201</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048227</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351409</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071744</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361343581</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003234031</v>
       </c>
       <c r="H23" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397719</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>675.365442515424</v>
       </c>
       <c r="K23" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.714952431132</v>
       </c>
       <c r="L23" t="n">
-        <v>2758.60299862014</v>
+        <v>3042.307675747714</v>
       </c>
       <c r="M23" t="n">
-        <v>3240.782198133642</v>
+        <v>3524.486875261217</v>
       </c>
       <c r="N23" t="n">
-        <v>4845.157279159621</v>
+        <v>4089.529939133889</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337433</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434847</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362237069</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183249</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464076</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542989</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818924</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908876</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665777</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430619</v>
       </c>
     </row>
     <row r="24">
@@ -6050,76 +6050,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C24" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D24" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E24" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500346</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H24" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546893</v>
       </c>
       <c r="I24" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K24" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L24" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M24" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N24" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O24" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P24" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q24" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249246</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T24" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070617</v>
       </c>
       <c r="U24" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V24" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415377</v>
       </c>
       <c r="W24" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X24" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y24" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="25">
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967136</v>
+        <v>290.446609996715</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.841604589321</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>155.503537562629</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>155.503537562629</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="26">
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546305</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048331</v>
       </c>
       <c r="D26" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351513</v>
       </c>
       <c r="E26" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071847</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361344617</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003235068</v>
       </c>
       <c r="H26" t="n">
-        <v>140.96</v>
+        <v>140.9600000000035</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>216.548297039774</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>675.3654425154261</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.714952431133</v>
       </c>
       <c r="L26" t="n">
-        <v>2332.601309399844</v>
+        <v>3042.307675747716</v>
       </c>
       <c r="M26" t="n">
-        <v>2814.780508913348</v>
+        <v>3524.486875261219</v>
       </c>
       <c r="N26" t="n">
-        <v>4465.52036104992</v>
+        <v>4089.529939133891</v>
       </c>
       <c r="O26" t="n">
-        <v>5375.675243990664</v>
+        <v>4999.684822074635</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434951</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237173</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183354</v>
       </c>
       <c r="T26" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464181</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922543093</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766819028</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.37407390898</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665881</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430723</v>
       </c>
     </row>
     <row r="27">
@@ -6287,76 +6287,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C27" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927302</v>
       </c>
       <c r="D27" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939723</v>
       </c>
       <c r="E27" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402438</v>
       </c>
       <c r="F27" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500367</v>
       </c>
       <c r="G27" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448442</v>
       </c>
       <c r="H27" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546914</v>
       </c>
       <c r="I27" t="n">
-        <v>140.96</v>
+        <v>140.9600000000035</v>
       </c>
       <c r="J27" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149252</v>
       </c>
       <c r="K27" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L27" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.27078437432</v>
       </c>
       <c r="M27" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117179</v>
       </c>
       <c r="N27" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O27" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P27" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368539</v>
       </c>
       <c r="Q27" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249719</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249248</v>
       </c>
       <c r="S27" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432125</v>
       </c>
       <c r="T27" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070619</v>
       </c>
       <c r="U27" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043176</v>
       </c>
       <c r="V27" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W27" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021612</v>
       </c>
       <c r="X27" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y27" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545327</v>
       </c>
     </row>
     <row r="28">
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>239.3480243885979</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>239.3480243885979</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>239.3480243885979</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>239.3480243885979</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>239.3480243885979</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>239.3480243885979</v>
       </c>
       <c r="H28" t="n">
-        <v>140.96</v>
+        <v>239.3480243885979</v>
       </c>
       <c r="I28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000035</v>
       </c>
       <c r="J28" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967171</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="V28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893231</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885979</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885979</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.96</v>
+        <v>239.3480243885979</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G29" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>1765.421978263786</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>2683.01470158037</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="30">
@@ -6572,7 +6572,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H31" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6630,49 +6630,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="32">
@@ -6706,40 +6706,40 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L32" t="n">
-        <v>3797.935015773446</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M32" t="n">
-        <v>4280.114215286949</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N32" t="n">
-        <v>4845.157279159621</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O32" t="n">
-        <v>5755.312162100365</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P32" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q32" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V32" t="n">
         <v>4826.598134791557</v>
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6840,10 +6840,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
         <v>140.96</v>
@@ -6867,49 +6867,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6940,31 +6940,31 @@
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>2475.128344611655</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3392.721067928238</v>
+        <v>2631.383042915616</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -7049,16 +7049,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W36" t="n">
         <v>3503.082427021609</v>
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
         <v>140.96</v>
@@ -7104,49 +7104,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="38">
@@ -7156,52 +7156,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>1025.778834695947</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K38" t="n">
-        <v>1765.421978263786</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L38" t="n">
-        <v>2683.01470158037</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M38" t="n">
-        <v>3165.193901093872</v>
+        <v>3553.537024987069</v>
       </c>
       <c r="N38" t="n">
-        <v>4815.933753230444</v>
+        <v>4118.580088859741</v>
       </c>
       <c r="O38" t="n">
-        <v>5726.088636171188</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P38" t="n">
-        <v>6561.955964268602</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q38" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
@@ -7222,10 +7222,10 @@
         <v>4180.374073908805</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7283,7 +7283,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
         <v>5159.222422432123</v>
@@ -7314,25 +7314,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I40" t="n">
         <v>140.96</v>
@@ -7341,49 +7341,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E41" t="n">
         <v>1303.215227044376</v>
@@ -7414,55 +7414,55 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>1765.421978263786</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L41" t="n">
-        <v>2683.01470158037</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M41" t="n">
-        <v>3165.193901093872</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N41" t="n">
-        <v>3730.236964966544</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O41" t="n">
-        <v>4640.391847907288</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="42">
@@ -7472,25 +7472,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C42" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D42" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E42" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
         <v>140.96</v>
@@ -7520,28 +7520,28 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S42" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T42" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U42" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V42" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W42" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X42" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y42" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="43">
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7578,49 +7578,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
         <v>1303.215227044376</v>
@@ -7651,55 +7651,55 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L44" t="n">
-        <v>2257.013012360075</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M44" t="n">
-        <v>3788.860546968407</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N44" t="n">
-        <v>4353.903610841079</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O44" t="n">
-        <v>5264.058493781823</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P44" t="n">
-        <v>6099.925821879237</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="45">
@@ -7709,16 +7709,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C45" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D45" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E45" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
         <v>881.7120959500332</v>
@@ -7757,28 +7757,28 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S45" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T45" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U45" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V45" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W45" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X45" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y45" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="46">
@@ -7815,49 +7815,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
-        <v>609.557124268908</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.18810711406297</v>
       </c>
       <c r="P2" t="n">
         <v>870.5779326741233</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>433.9782470873015</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8239,13 +8239,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>29.34358558167025</v>
       </c>
       <c r="Q5" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1008.117854979872</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>214.8909222651571</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8695,13 +8695,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
-        <v>214.8909222650855</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>645.1956588513131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8944,19 +8944,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>931.7660397882557</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>433.9782470873006</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,19 +9181,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>214.8909222651567</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>433.9782470873024</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -9412,13 +9412,13 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.473091295036568</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>645.1956588513131</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1049.830320356875</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>645.1956588513133</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>265.4073538855528</v>
+        <v>645.1956588514167</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,19 +10126,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1008.117854979872</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>746.2187031047695</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
         <v>294.54111633436</v>
@@ -10354,13 +10354,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>332.9552028337757</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,13 +10372,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>645.1956588512442</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>301.7997308240108</v>
       </c>
       <c r="M35" t="n">
-        <v>291.2427374567726</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
         <v>430.3047365861567</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>315.9139665186129</v>
       </c>
       <c r="N38" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10849,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>29.5187130597763</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11083,10 +11083,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>392.2657817102981</v>
+        <v>645.1956588512442</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -11311,19 +11311,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>265.4073538855546</v>
       </c>
       <c r="Q44" t="n">
-        <v>378.1515460156957</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.38834429297799</v>
+        <v>1.388344292908641</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23484,13 +23484,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="14">
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292908982</v>
       </c>
       <c r="T14" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23673,13 +23673,13 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G16" t="n">
-        <v>77.1964941341692</v>
+        <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
         <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23691,7 +23691,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6476277959926</v>
+        <v>39.8389833972746</v>
       </c>
       <c r="N16" t="n">
         <v>168.0209277307011</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.388344292907504</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23916,7 +23916,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T19" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
         <v>150.8146863564251</v>
@@ -23958,7 +23958,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
-        <v>226.3728098387097</v>
+        <v>158.5641654399917</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292908982</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292907504</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.9010117936523</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C25" t="n">
         <v>272.7252466480447</v>
@@ -24426,13 +24426,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>226.3728098387097</v>
+        <v>211.9747076517084</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.388344292807005</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S27" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24627,7 +24627,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,13 +24669,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
-        <v>226.3728098387097</v>
+        <v>158.5641654399917</v>
       </c>
       <c r="X28" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="29">
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24861,10 +24861,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R31" t="n">
-        <v>608.1413738827905</v>
+        <v>540.3327294840725</v>
       </c>
       <c r="S31" t="n">
         <v>316.45975839138</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.388344292976285</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D34" t="n">
-        <v>120.3234295121291</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E34" t="n">
         <v>280.9809048369565</v>
@@ -25137,7 +25137,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>199.1703102162162</v>
@@ -25149,7 +25149,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y34" t="n">
-        <v>287.4653528494624</v>
+        <v>273.067250662461</v>
       </c>
     </row>
     <row r="35">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.388344292978275</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25335,10 +25335,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25350,7 +25350,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>39.8389833972746</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
         <v>168.0209277307011</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,10 +25572,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q40" t="n">
-        <v>505.228266425598</v>
+        <v>437.41962202688</v>
       </c>
       <c r="R40" t="n">
         <v>608.1413738827905</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.388344292976285</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.533699957572935</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>121.9010117936523</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C46" t="n">
         <v>272.7252466480447</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16635.20169611366</v>
+        <v>1366403.055422136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33181.61982254724</v>
+        <v>2720233.373779674</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49728.03794898081</v>
+        <v>4074063.692137215</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68560.63564458964</v>
+        <v>5286709.860492388</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87393.23334019845</v>
+        <v>6499356.028847559</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106225.8310358073</v>
+        <v>7712002.197202723</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125058.4287314161</v>
+        <v>8924648.365557885</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143891.0264270249</v>
+        <v>10137294.53391305</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162723.6241226337</v>
+        <v>11349940.70226821</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181556.2218182425</v>
+        <v>12562586.87062337</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200388.8195138513</v>
+        <v>13775233.03897853</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219221.4172094601</v>
+        <v>14987879.20733369</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238054.0149050691</v>
+        <v>16200525.37568887</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256886.6126006782</v>
+        <v>17413171.54404404</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275719.2102962873</v>
+        <v>18625817.71239922</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245015</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
+        <v>850079.5022245013</v>
+      </c>
+      <c r="D2" t="n">
         <v>850079.5022245016</v>
       </c>
-      <c r="D2" t="n">
-        <v>850079.5022245013</v>
-      </c>
       <c r="E2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.9894323164</v>
       </c>
       <c r="F2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323162</v>
       </c>
       <c r="G2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323162</v>
       </c>
       <c r="H2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.989432316</v>
       </c>
       <c r="I2" t="n">
+        <v>761428.9894323163</v>
+      </c>
+      <c r="J2" t="n">
+        <v>761428.9894323214</v>
+      </c>
+      <c r="K2" t="n">
         <v>761428.9894323124</v>
       </c>
-      <c r="J2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="K2" t="n">
-        <v>761428.9894323123</v>
-      </c>
       <c r="L2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323127</v>
       </c>
       <c r="M2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="N2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="O2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="P2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323125</v>
       </c>
     </row>
     <row r="3">
@@ -26423,37 +26423,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.8038216352</v>
+        <v>89075.80382163514</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715408</v>
+        <v>88773.85276715399</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722105</v>
+        <v>88471.49209721824</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850331</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850331</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850331</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850331</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850331</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850373</v>
       </c>
       <c r="K4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="L4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="M4" t="n">
         <v>13783.46259850302</v>
@@ -26462,10 +26462,10 @@
         <v>13783.46259850302</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
     </row>
     <row r="5">
@@ -26527,49 +26527,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1456302.301597134</v>
+        <v>-1456302.301597133</v>
       </c>
       <c r="C6" t="n">
-        <v>588698.6494573475</v>
+        <v>588698.6494573473</v>
       </c>
       <c r="D6" t="n">
-        <v>589001.0101272803</v>
+        <v>589001.0101272833</v>
       </c>
       <c r="E6" t="n">
-        <v>608666.1268338095</v>
+        <v>608666.126833813</v>
       </c>
       <c r="F6" t="n">
-        <v>608666.1268338092</v>
+        <v>608666.1268338128</v>
       </c>
       <c r="G6" t="n">
-        <v>608666.1268338093</v>
+        <v>608666.1268338128</v>
       </c>
       <c r="H6" t="n">
-        <v>608666.1268338095</v>
+        <v>608666.1268338127</v>
       </c>
       <c r="I6" t="n">
+        <v>608666.1268338129</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-11557.87316618233</v>
+      </c>
+      <c r="K6" t="n">
+        <v>608666.1268338248</v>
+      </c>
+      <c r="L6" t="n">
+        <v>608666.1268338097</v>
+      </c>
+      <c r="M6" t="n">
         <v>608666.1268338094</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-11557.87316619046</v>
-      </c>
-      <c r="K6" t="n">
-        <v>608666.1268338093</v>
-      </c>
-      <c r="L6" t="n">
-        <v>608666.1268338093</v>
-      </c>
-      <c r="M6" t="n">
-        <v>608666.1268338093</v>
       </c>
       <c r="N6" t="n">
         <v>608666.1268338093</v>
       </c>
       <c r="O6" t="n">
-        <v>608666.1268338092</v>
+        <v>608666.1268338094</v>
       </c>
       <c r="P6" t="n">
-        <v>608666.1268338092</v>
+        <v>608666.1268338095</v>
       </c>
     </row>
   </sheetData>
@@ -27508,7 +27508,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.533699957573219</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27641,7 +27641,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E4" t="n">
-        <v>280.9809048369565</v>
+        <v>319.6112936674025</v>
       </c>
       <c r="F4" t="n">
         <v>274.3828559677419</v>
@@ -27687,7 +27687,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0345329751544</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27805,7 +27805,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27878,7 +27878,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27939,10 +27939,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>187.2441835284045</v>
+        <v>319.1859637116847</v>
       </c>
       <c r="O7" t="n">
-        <v>400</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
         <v>368.8061924102448</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.388344292978275</v>
+        <v>1.388344292908982</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.53369995757356</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28118,7 +28118,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.533699957572878</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28146,10 +28146,10 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D10" t="n">
-        <v>285.5362180555555</v>
+        <v>317.6821588734957</v>
       </c>
       <c r="E10" t="n">
-        <v>280.9809048369565</v>
+        <v>400</v>
       </c>
       <c r="F10" t="n">
         <v>274.3828559677419</v>
@@ -28158,7 +28158,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H10" t="n">
-        <v>356.512260443258</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I10" t="n">
         <v>97.40414414470841</v>
@@ -34828,13 +34828,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
-        <v>1356.671410701069</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34843,7 +34843,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>919.3483666068121</v>
+        <v>980.5364737208749</v>
       </c>
       <c r="P2" t="n">
         <v>1714.888365095753</v>
@@ -34852,7 +34852,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34971,7 +34971,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>38.63038883044603</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -34983,7 +34983,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>38.63038883044603</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>150.9965757542561</v>
@@ -35065,10 +35065,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1181.092533519462</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L5" t="n">
         <v>926.861336683417</v>
@@ -35083,13 +35083,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>873.6540180033003</v>
       </c>
       <c r="Q5" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35235,10 +35235,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>19.22325579770342</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35299,22 +35299,22 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K8" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>1578.868424548228</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35323,7 +35323,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>461.4348583860824</v>
+        <v>676.3257806512395</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35442,10 +35442,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>32.14594081794026</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>119.0190951630435</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -35454,7 +35454,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -35539,13 +35539,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L11" t="n">
-        <v>1141.752258948503</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35557,7 +35557,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1489.506091272943</v>
       </c>
       <c r="Q11" t="n">
         <v>461.4348583860824</v>
@@ -35779,28 +35779,28 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
-        <v>570.7505695683558</v>
+        <v>1502.516609356612</v>
       </c>
       <c r="O14" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1278.288679508931</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36016,7 +36016,7 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L17" t="n">
         <v>926.861336683417</v>
@@ -36025,19 +36025,19 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>570.7505695683558</v>
+        <v>785.6414918335124</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>1278.288679508933</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,7 +36247,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
@@ -36256,13 +36256,13 @@
         <v>1463.989403955261</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>491.5227877733222</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>1215.946228419669</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36274,7 +36274,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36487,10 +36487,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L23" t="n">
         <v>926.861336683417</v>
@@ -36499,10 +36499,10 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>1620.580889925231</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1564.544025458125</v>
       </c>
       <c r="P23" t="n">
         <v>844.3104324216301</v>
@@ -36511,7 +36511,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36727,7 +36727,7 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
         <v>926.861336683417</v>
@@ -36736,13 +36736,13 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>1109.717786307183</v>
+        <v>1489.506091273047</v>
       </c>
       <c r="Q26" t="n">
         <v>461.4348583860824</v>
@@ -36958,31 +36958,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
-        <v>1495.167551458158</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1665.567069711581</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
         <v>118.0642805686905</v>
@@ -37198,13 +37198,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L32" t="n">
-        <v>1259.816539517193</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37216,13 +37216,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1489.506091272874</v>
       </c>
       <c r="Q32" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,19 +37432,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>926.861336683417</v>
+        <v>1228.661067507428</v>
       </c>
       <c r="M35" t="n">
-        <v>778.2924339350583</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
@@ -37669,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
         <v>893.7563986827749</v>
@@ -37678,13 +37678,13 @@
         <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>802.9636629968986</v>
       </c>
       <c r="N38" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37693,10 +37693,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>490.9535714458586</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,16 +37906,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37927,10 +37927,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1236.576214131928</v>
+        <v>1489.506091272874</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38143,31 +38143,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L44" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1109.717786307185</v>
       </c>
       <c r="Q44" t="n">
-        <v>839.5864044017781</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
